--- a/data/benjamin_2_csv/Tableau récapitulatif - new algo.xlsx
+++ b/data/benjamin_2_csv/Tableau récapitulatif - new algo.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\benjamin_2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00E05A-9A05-4735-B2A1-F145971A0840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81341F-7727-424D-A899-A902356B6E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{0ACE3026-9237-4151-BE79-9813C1EEE936}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultats_merged" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Résultats Algorithme" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultats_merged" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +37,116 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Poids assiette vide (g)</t>
+  </si>
+  <si>
+    <t>Poids initial (g)</t>
+  </si>
+  <si>
+    <t>Poids final (g)</t>
+  </si>
+  <si>
+    <t>Poids consommé (g)</t>
+  </si>
+  <si>
+    <t>Poids restant (g)</t>
+  </si>
+  <si>
+    <t>Poids du repas (g)</t>
+  </si>
+  <si>
+    <t>N°Plateau</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Roxane</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Représ.</t>
+  </si>
+  <si>
+    <t>Dorothée</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>Duree_Totale</t>
+  </si>
+  <si>
+    <t>Poids_Conso</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Duree_activite_Totale</t>
+  </si>
+  <si>
+    <t>Duree_activite_mean</t>
+  </si>
+  <si>
+    <t>Duree_activite_max</t>
+  </si>
+  <si>
+    <t>Duree_activite_min</t>
+  </si>
+  <si>
+    <t>Proportion_activite</t>
+  </si>
+  <si>
+    <t>Bouchees</t>
+  </si>
+  <si>
+    <t>Num_fichier</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>Nom fichier</t>
+  </si>
+  <si>
+    <t>Ustensile</t>
+  </si>
+  <si>
+    <t>05_06_Roxanne</t>
+  </si>
+  <si>
+    <t>14_05_Benjamin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +154,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +203,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +320,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Menu" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Poids assiette vide (g)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Poids initial (g)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Poids final (g)" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Poids consommé (g)" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Poids restant (g)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Poids du repas (g)" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="N°Plateau" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Commentaire" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,13 +661,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F02A8D-4D32-4DBD-9CD0-86362296D9C7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.46484375" style="4" customWidth="1"/>
+    <col min="6" max="9" width="13.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED654359-3ED8-45BE-A982-9FC38D827CE8}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A472D21A-79DB-4329-B4B1-053817E0ED03}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="17" max="17" width="12.1328125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="29.86328125" customWidth="1"/>
+    <col min="20" max="20" width="39.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6">
+        <v>447.73200000000003</v>
+      </c>
+      <c r="L2" s="6">
+        <v>362</v>
+      </c>
+      <c r="M2" s="6">
+        <v>36</v>
+      </c>
+      <c r="N2" s="6">
+        <v>183.87599999999998</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5.931</v>
+      </c>
+      <c r="P2" s="6">
+        <v>12.950000000000003</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1.0109999999999957</v>
+      </c>
+      <c r="R2" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>31</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6">
+        <v>428.96100000000001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>407</v>
+      </c>
+      <c r="M3" s="6">
+        <v>36</v>
+      </c>
+      <c r="N3" s="6">
+        <v>145.55800000000013</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="P3" s="6">
+        <v>11.913000000000011</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.20200000000005502</v>
+      </c>
+      <c r="R3" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>30</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="35" spans="17:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R36" s="10"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R37" s="10"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R38" s="10"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R39" s="10"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R40" s="10"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="17:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="10"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R42" s="10"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R43" s="10"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R44" s="10"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R45" s="10"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R46" s="10"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R47" s="10"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="R48" s="10"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R49" s="10"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R50" s="10"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/benjamin_2_csv/Tableau récapitulatif - new algo.xlsx
+++ b/data/benjamin_2_csv/Tableau récapitulatif - new algo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\benjamin_2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81341F-7727-424D-A899-A902356B6E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D9919E-D897-4134-9E86-0384DCA77C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5738" yWindow="3472" windowWidth="16200" windowHeight="8296" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -1074,19 +1074,19 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6">
-        <v>428.96100000000001</v>
+        <v>450.863</v>
       </c>
       <c r="L3" s="6">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="M3" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="6">
-        <v>145.55800000000013</v>
+        <v>154.74100000000013</v>
       </c>
       <c r="O3" s="6">
-        <v>4.8520000000000003</v>
+        <v>4.992</v>
       </c>
       <c r="P3" s="6">
         <v>11.913000000000011</v>
@@ -1095,10 +1095,10 @@
         <v>0.20200000000005502</v>
       </c>
       <c r="R3" s="6">
-        <v>33.9</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="S3" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>33</v>
